--- a/public/templates/library_templates.xlsx
+++ b/public/templates/library_templates.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windr\AppData\Local\Temp\BvSshSftp-C39NBY5J\YULYYY6K\U7F0LP4U\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windr\AppData\Local\Temp\BvSshSftp-XKF8QLGR\C3E6AVWE\7NUMX9DW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F6632-37CD-4488-BFF9-6645C7EEE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D529124-AFA8-4614-A1C3-F3452940336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49125" yWindow="2910" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{D871ACDE-CDB0-42DF-B7B2-F854ED252554}"/>
+    <workbookView xWindow="-57720" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D871ACDE-CDB0-42DF-B7B2-F854ED252554}"/>
   </bookViews>
   <sheets>
-    <sheet name=" Sample Sheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Library" sheetId="3" r:id="rId1"/>
     <sheet name="Library Sample Sheet" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -23,6 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="DEG預設參數">[1]下拉選單!$C$2:$C$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Library!$A$1:$H$30</definedName>
     <definedName name="WGS">[2]清單!#REF!</definedName>
     <definedName name="WGS1_">[3]清單!#REF!</definedName>
     <definedName name="WGSd">[2]清單!#REF!</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Library Information</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,44 +64,6 @@
   </si>
   <si>
     <t>序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF339933"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Sample_Name*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>★ 勿用數字開頭，不能空格
-，僅允許"-"、"_"符號</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -143,21 +106,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Sample Sheet： </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Library Prep Kit*
-</t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF339933"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Libary*</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>【5.1常用-下拉選單請選擇】
-【5.2其他-下拉選單請選擇或自行輸入</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -168,87 +146,45 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>】</t>
+      <t>★ 勿用數字開頭，不能空格
+，僅允許"-"、"_"符號</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Index Adapter Kit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【5.1常用-勿填!自動帶入】</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【5.2其他-此欄忽略留空】</t>
-    </r>
+    <t xml:space="preserve">                                台基盟生技股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Set-Well Position*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【5.1常用-下拉選單請選擇】
-【5.2其他-此欄忽略留空】</t>
-    </r>
+    <t>為必填之欄位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Index 1 (i7)* Sequence
+    <t xml:space="preserve">                               委託服務送件單-Library樣本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libarary (不同的物種請分開填寫訂購單)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Adapter Kit
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【5.1常用-勿填!自動帶入】
-【5.2其他-必填 NovaSeq 6000 v1.5】</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Prep Kit*
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-Well Position*
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Index 1 (i7)* Sequence
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -267,93 +203,6 @@
       <t xml:space="preserve">ndex 2 (i5)* Sequence
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【5.1常用-勿填!自動帶入】
-【5.2其他-必填 NovaSeq 6000 v1.5】</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Library</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sample Sheet: (不同的物種請分開填寫訂購單)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Sample Sheet： </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>L15</t>
-  </si>
-  <si>
-    <t>L16</t>
-  </si>
-  <si>
-    <t>L17</t>
-  </si>
-  <si>
-    <t>L18</t>
-  </si>
-  <si>
-    <t>L19</t>
-  </si>
-  <si>
-    <t>L20</t>
-  </si>
-  <si>
-    <t>L21</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAPA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,23 +262,8 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -450,24 +284,9 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -480,6 +299,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF833C0B"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -517,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -540,82 +374,321 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,6 +706,134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>282881</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033C0898-F8F8-4822-90FF-3550402BF80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="0"/>
+          <a:ext cx="899107" cy="407090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>282881</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191878BB-2C74-49B5-B013-4C8F42771802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="0"/>
+          <a:ext cx="902006" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,229 +1453,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12098ED-CFD2-4C3E-83B1-DFD6C81D7ACE}">
-  <dimension ref="A1:H12"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.58203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="12"/>
+    <col min="2" max="2" width="16.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.58203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="37.58203125" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="26">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A11" s="26">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" s="26">
         <v>8</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="5">
-        <v>120</v>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="5">
-        <v>120</v>
-      </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="5">
-        <v>120</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="5">
-        <v>120</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="5">
-        <v>120</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="16"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:H2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40376D-9AA8-4CC1-ABA2-9B7E01F1D29F}">
-  <dimension ref="A1:I24"/>
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1485,458 +1691,380 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="45">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="45">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="45">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="45">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="45">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="45">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="45">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="45">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="45">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="45">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="45">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="45">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="45">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="45">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="45">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="45">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="45">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="45">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="1" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="45">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="1" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="45">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="47">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="【請注意!!】" prompt="選擇Set_Well可參考〈Index清單〉分頁_x000a_1. IDT的Set為A~D_x000a_2. KAPA的Set為1~4" sqref="E2" xr:uid="{1E44FF0F-F982-4893-A824-8E1589B45EDB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Version: NovaSeq 6000 Kit v1.5" sqref="G2" xr:uid="{126193B5-2336-46BE-B5DE-835B5E607622}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="【請注意填寫規範!!】" sqref="B2" xr:uid="{6E196EB0-22B7-4589-BC30-7306B09D735B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="【請注意!!】" prompt="選擇Set_Well可參考〈Index清單〉分頁_x000a_1. IDT的Set為A~D_x000a_2. KAPA的Set為1~4" sqref="E4" xr:uid="{1E44FF0F-F982-4893-A824-8E1589B45EDB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Version: NovaSeq 6000 Kit v1.5" sqref="G4" xr:uid="{126193B5-2336-46BE-B5DE-835B5E607622}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="【請注意填寫規範!!】" sqref="B4" xr:uid="{6E196EB0-22B7-4589-BC30-7306B09D735B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/library_templates.xlsx
+++ b/public/templates/library_templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windr\AppData\Local\Temp\BvSshSftp-XKF8QLGR\C3E6AVWE\7NUMX9DW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windr\AppData\Local\Temp\BvSshSftp-TC61X5JD\YWL47NM5\YV8JAY3E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D529124-AFA8-4614-A1C3-F3452940336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218C87C-B53D-4DC7-8A95-28CD9E07DE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D871ACDE-CDB0-42DF-B7B2-F854ED252554}"/>
+    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{D871ACDE-CDB0-42DF-B7B2-F854ED252554}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <definedNames>
     <definedName name="DEG預設參數">[1]下拉選單!$C$2:$C$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Library!$A$1:$H$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Library Sample Sheet'!$A$1:$J$50</definedName>
     <definedName name="WGS">[2]清單!#REF!</definedName>
     <definedName name="WGS1_">[3]清單!#REF!</definedName>
     <definedName name="WGSd">[2]清單!#REF!</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Library Information</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,6 +206,10 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Tube Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -415,15 +420,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -518,13 +514,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,9 +582,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -571,12 +601,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,106 +614,97 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,15 +792,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>282881</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>978206</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -813,8 +828,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="38100" y="0"/>
-          <a:ext cx="902006" cy="406400"/>
+          <a:off x="76200" y="9525"/>
+          <a:ext cx="905181" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,6 +859,7 @@
       <sheetName val="KEGG_物種縮寫"/>
       <sheetName val="GSEA_預設基因集"/>
       <sheetName val="下拉選單"/>
+      <sheetName val="KIT清單"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1103,6 +1119,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1456,70 +1473,70 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="J7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="12"/>
-    <col min="2" max="2" width="16.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.58203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="37.58203125" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="12"/>
+    <col min="1" max="1" width="8.6640625" style="11"/>
+    <col min="2" max="2" width="16.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.9140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="25" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1534,130 +1551,130 @@
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="27"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="27"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="27"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="28"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29">
+      <c r="A14" s="22">
         <v>10</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1677,14 +1694,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40376D-9AA8-4CC1-ABA2-9B7E01F1D29F}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
@@ -1692,55 +1710,57 @@
     <col min="6" max="6" width="24.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="39" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="80" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1755,18 +1775,21 @@
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45">
+      <c r="J4" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
@@ -1776,10 +1799,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="45">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
       <c r="B6" s="4"/>
@@ -1789,10 +1813,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="45">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
@@ -1802,10 +1827,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="45">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="32">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
@@ -1815,10 +1841,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="45">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="32">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
@@ -1828,10 +1855,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
@@ -1841,10 +1869,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="45">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="32">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
@@ -1854,10 +1883,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="45">
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
@@ -1867,10 +1897,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="45">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="32">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
@@ -1880,10 +1911,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="45">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="32">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
@@ -1893,10 +1925,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="45">
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="32">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
@@ -1906,10 +1939,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45">
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="32">
         <v>12</v>
       </c>
       <c r="B16" s="4"/>
@@ -1919,10 +1953,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="45">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="32">
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
@@ -1932,10 +1967,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="45">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="32">
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
@@ -1945,10 +1981,11 @@
       <c r="F18" s="1"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="45">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="32">
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
@@ -1958,10 +1995,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="45">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="32">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
@@ -1971,10 +2009,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="45">
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="32">
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
@@ -1984,10 +2023,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="45">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="32">
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
@@ -1997,10 +2037,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="45">
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="32">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
@@ -2010,10 +2051,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="45">
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="32">
         <v>20</v>
       </c>
       <c r="B24" s="4"/>
@@ -2023,10 +2065,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="45">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="32">
         <v>21</v>
       </c>
       <c r="B25" s="4"/>
@@ -2036,27 +2079,29 @@
       <c r="F25" s="1"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="46"/>
-    </row>
-    <row r="26" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="47">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
         <v>22</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -2065,6 +2110,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="【請注意填寫規範!!】" sqref="B4" xr:uid="{6E196EB0-22B7-4589-BC30-7306B09D735B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>